--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H2">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I2">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J2">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.04110541018131</v>
+        <v>0.5987749999999999</v>
       </c>
       <c r="N2">
-        <v>1.04110541018131</v>
+        <v>1.796325</v>
       </c>
       <c r="O2">
-        <v>0.1921164921339041</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="P2">
-        <v>0.1921164921339041</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="Q2">
-        <v>8.223954132589816</v>
+        <v>4.746881622625</v>
       </c>
       <c r="R2">
-        <v>8.223954132589816</v>
+        <v>42.721934603625</v>
       </c>
       <c r="S2">
-        <v>0.02321026207012966</v>
+        <v>0.008975147840144792</v>
       </c>
       <c r="T2">
-        <v>0.02321026207012966</v>
+        <v>0.008975147840144792</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H3">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I3">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J3">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.26868193787949</v>
+        <v>1.09856</v>
       </c>
       <c r="N3">
-        <v>2.26868193787949</v>
+        <v>3.29568</v>
       </c>
       <c r="O3">
-        <v>0.4186427343577547</v>
+        <v>0.137157325696835</v>
       </c>
       <c r="P3">
-        <v>0.4186427343577547</v>
+        <v>0.137157325696835</v>
       </c>
       <c r="Q3">
-        <v>17.92089063806389</v>
+        <v>8.709004676800001</v>
       </c>
       <c r="R3">
-        <v>17.92089063806389</v>
+        <v>78.3810420912</v>
       </c>
       <c r="S3">
-        <v>0.05057768581068302</v>
+        <v>0.01646651648994942</v>
       </c>
       <c r="T3">
-        <v>0.05057768581068302</v>
+        <v>0.01646651648994942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H4">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I4">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J4">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.10934871161525</v>
+        <v>2.281579</v>
       </c>
       <c r="N4">
-        <v>2.10934871161525</v>
+        <v>6.844737</v>
       </c>
       <c r="O4">
-        <v>0.3892407735083412</v>
+        <v>0.2848595197404412</v>
       </c>
       <c r="P4">
-        <v>0.3892407735083412</v>
+        <v>0.2848595197404412</v>
       </c>
       <c r="Q4">
-        <v>16.6622773105561</v>
+        <v>18.087571167245</v>
       </c>
       <c r="R4">
-        <v>16.6622773105561</v>
+        <v>162.788140505205</v>
       </c>
       <c r="S4">
-        <v>0.04702553258786168</v>
+        <v>0.03419900435717877</v>
       </c>
       <c r="T4">
-        <v>0.04702553258786168</v>
+        <v>0.03419900435717876</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.865808422085</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H5">
-        <v>12.865808422085</v>
+        <v>23.782965</v>
       </c>
       <c r="I5">
-        <v>0.1967734499725871</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J5">
-        <v>0.1967734499725871</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.04110541018131</v>
+        <v>3.381206666666667</v>
       </c>
       <c r="N5">
-        <v>1.04110541018131</v>
+        <v>10.14362</v>
       </c>
       <c r="O5">
-        <v>0.1921164921339041</v>
+        <v>0.4221501456709782</v>
       </c>
       <c r="P5">
-        <v>0.1921164921339041</v>
+        <v>0.4221501456709781</v>
       </c>
       <c r="Q5">
-        <v>13.39466275458896</v>
+        <v>26.80503993703334</v>
       </c>
       <c r="R5">
-        <v>13.39466275458896</v>
+        <v>241.2453594333</v>
       </c>
       <c r="S5">
-        <v>0.03780342495381969</v>
+        <v>0.0506815242978022</v>
       </c>
       <c r="T5">
-        <v>0.03780342495381969</v>
+        <v>0.05068152429780218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.865808422085</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H6">
-        <v>12.865808422085</v>
+        <v>23.782965</v>
       </c>
       <c r="I6">
-        <v>0.1967734499725871</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J6">
-        <v>0.1967734499725871</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.26868193787949</v>
+        <v>0.6493676666666667</v>
       </c>
       <c r="N6">
-        <v>2.26868193787949</v>
+        <v>1.948103</v>
       </c>
       <c r="O6">
-        <v>0.4186427343577547</v>
+        <v>0.08107480024212949</v>
       </c>
       <c r="P6">
-        <v>0.4186427343577547</v>
+        <v>0.0810748002421295</v>
       </c>
       <c r="Q6">
-        <v>29.18842718340206</v>
+        <v>5.147962829488334</v>
       </c>
       <c r="R6">
-        <v>29.18842718340206</v>
+        <v>46.33166546539501</v>
       </c>
       <c r="S6">
-        <v>0.0823777751455327</v>
+        <v>0.009733490561468326</v>
       </c>
       <c r="T6">
-        <v>0.0823777751455327</v>
+        <v>0.009733490561468326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H7">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I7">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J7">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.10934871161525</v>
+        <v>0.5987749999999999</v>
       </c>
       <c r="N7">
-        <v>2.10934871161525</v>
+        <v>1.796325</v>
       </c>
       <c r="O7">
-        <v>0.3892407735083412</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="P7">
-        <v>0.3892407735083412</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="Q7">
-        <v>27.13847641901363</v>
+        <v>7.7724180483</v>
       </c>
       <c r="R7">
-        <v>27.13847641901363</v>
+        <v>69.9517624347</v>
       </c>
       <c r="S7">
-        <v>0.07659224987323468</v>
+        <v>0.01469566898959785</v>
       </c>
       <c r="T7">
-        <v>0.07659224987323468</v>
+        <v>0.01469566898959785</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.9116503761296</v>
+        <v>12.980532</v>
       </c>
       <c r="H8">
-        <v>21.9116503761296</v>
+        <v>38.941596</v>
       </c>
       <c r="I8">
-        <v>0.3351232116672094</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J8">
-        <v>0.3351232116672094</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.04110541018131</v>
+        <v>1.09856</v>
       </c>
       <c r="N8">
-        <v>1.04110541018131</v>
+        <v>3.29568</v>
       </c>
       <c r="O8">
-        <v>0.1921164921339041</v>
+        <v>0.137157325696835</v>
       </c>
       <c r="P8">
-        <v>0.1921164921339041</v>
+        <v>0.137157325696835</v>
       </c>
       <c r="Q8">
-        <v>22.81233775258986</v>
+        <v>14.25989323392</v>
       </c>
       <c r="R8">
-        <v>22.81233775258986</v>
+        <v>128.33903910528</v>
       </c>
       <c r="S8">
-        <v>0.06438269585815211</v>
+        <v>0.02696183729316123</v>
       </c>
       <c r="T8">
-        <v>0.06438269585815211</v>
+        <v>0.02696183729316123</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.9116503761296</v>
+        <v>12.980532</v>
       </c>
       <c r="H9">
-        <v>21.9116503761296</v>
+        <v>38.941596</v>
       </c>
       <c r="I9">
-        <v>0.3351232116672094</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J9">
-        <v>0.3351232116672094</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.26868193787949</v>
+        <v>2.281579</v>
       </c>
       <c r="N9">
-        <v>2.26868193787949</v>
+        <v>6.844737</v>
       </c>
       <c r="O9">
-        <v>0.4186427343577547</v>
+        <v>0.2848595197404412</v>
       </c>
       <c r="P9">
-        <v>0.4186427343577547</v>
+        <v>0.2848595197404412</v>
       </c>
       <c r="Q9">
-        <v>49.71056543745556</v>
+        <v>29.61610922002801</v>
       </c>
       <c r="R9">
-        <v>49.71056543745556</v>
+        <v>266.544982980252</v>
       </c>
       <c r="S9">
-        <v>0.1402968976791131</v>
+        <v>0.05599654253704261</v>
       </c>
       <c r="T9">
-        <v>0.1402968976791131</v>
+        <v>0.05599654253704259</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.9116503761296</v>
+        <v>12.980532</v>
       </c>
       <c r="H10">
-        <v>21.9116503761296</v>
+        <v>38.941596</v>
       </c>
       <c r="I10">
-        <v>0.3351232116672094</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J10">
-        <v>0.3351232116672094</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.10934871161525</v>
+        <v>3.381206666666667</v>
       </c>
       <c r="N10">
-        <v>2.10934871161525</v>
+        <v>10.14362</v>
       </c>
       <c r="O10">
-        <v>0.3892407735083412</v>
+        <v>0.4221501456709782</v>
       </c>
       <c r="P10">
-        <v>0.3892407735083412</v>
+        <v>0.4221501456709781</v>
       </c>
       <c r="Q10">
-        <v>46.21931149025278</v>
+        <v>43.88986133528001</v>
       </c>
       <c r="R10">
-        <v>46.21931149025278</v>
+        <v>395.0087520175201</v>
       </c>
       <c r="S10">
-        <v>0.1304436181299441</v>
+        <v>0.08298458345581373</v>
       </c>
       <c r="T10">
-        <v>0.1304436181299441</v>
+        <v>0.08298458345581371</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.1431562674219</v>
+        <v>12.980532</v>
       </c>
       <c r="H11">
-        <v>19.1431562674219</v>
+        <v>38.941596</v>
       </c>
       <c r="I11">
-        <v>0.2927810502477941</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J11">
-        <v>0.2927810502477941</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.04110541018131</v>
+        <v>0.6493676666666667</v>
       </c>
       <c r="N11">
-        <v>1.04110541018131</v>
+        <v>1.948103</v>
       </c>
       <c r="O11">
-        <v>0.1921164921339041</v>
+        <v>0.08107480024212949</v>
       </c>
       <c r="P11">
-        <v>0.1921164921339041</v>
+        <v>0.0810748002421295</v>
       </c>
       <c r="Q11">
-        <v>19.93004355795919</v>
+        <v>8.429137776932002</v>
       </c>
       <c r="R11">
-        <v>19.93004355795919</v>
+        <v>75.86223999238801</v>
       </c>
       <c r="S11">
-        <v>0.05624806833688651</v>
+        <v>0.01593735924492647</v>
       </c>
       <c r="T11">
-        <v>0.05624806833688651</v>
+        <v>0.01593735924492647</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.1431562674219</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H12">
-        <v>19.1431562674219</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I12">
-        <v>0.2927810502477941</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J12">
-        <v>0.2927810502477941</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.26868193787949</v>
+        <v>0.5987749999999999</v>
       </c>
       <c r="N12">
-        <v>2.26868193787949</v>
+        <v>1.796325</v>
       </c>
       <c r="O12">
-        <v>0.4186427343577547</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="P12">
-        <v>0.4186427343577547</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="Q12">
-        <v>43.42973285790463</v>
+        <v>13.14402238595833</v>
       </c>
       <c r="R12">
-        <v>43.42973285790463</v>
+        <v>118.296201473625</v>
       </c>
       <c r="S12">
-        <v>0.1225706594438717</v>
+        <v>0.02485200885690345</v>
       </c>
       <c r="T12">
-        <v>0.1225706594438717</v>
+        <v>0.02485200885690345</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.1431562674219</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H13">
-        <v>19.1431562674219</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I13">
-        <v>0.2927810502477941</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J13">
-        <v>0.2927810502477941</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.10934871161525</v>
+        <v>1.09856</v>
       </c>
       <c r="N13">
-        <v>2.10934871161525</v>
+        <v>3.29568</v>
       </c>
       <c r="O13">
-        <v>0.3892407735083412</v>
+        <v>0.137157325696835</v>
       </c>
       <c r="P13">
-        <v>0.3892407735083412</v>
+        <v>0.137157325696835</v>
       </c>
       <c r="Q13">
-        <v>40.37959200893579</v>
+        <v>24.11506364213334</v>
       </c>
       <c r="R13">
-        <v>40.37959200893579</v>
+        <v>217.0355727792</v>
       </c>
       <c r="S13">
-        <v>0.1139623224670359</v>
+        <v>0.045595462151626</v>
       </c>
       <c r="T13">
-        <v>0.1139623224670359</v>
+        <v>0.045595462151626</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.56399644646306</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H14">
-        <v>3.56399644646306</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I14">
-        <v>0.054508807643735</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J14">
-        <v>0.054508807643735</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.04110541018131</v>
+        <v>2.281579</v>
       </c>
       <c r="N14">
-        <v>1.04110541018131</v>
+        <v>6.844737</v>
       </c>
       <c r="O14">
-        <v>0.1921164921339041</v>
+        <v>0.2848595197404412</v>
       </c>
       <c r="P14">
-        <v>0.1921164921339041</v>
+        <v>0.2848595197404412</v>
       </c>
       <c r="Q14">
-        <v>3.710495982279655</v>
+        <v>50.08413085271167</v>
       </c>
       <c r="R14">
-        <v>3.710495982279655</v>
+        <v>450.7571776744051</v>
       </c>
       <c r="S14">
-        <v>0.01047204091491611</v>
+        <v>0.09469637429038442</v>
       </c>
       <c r="T14">
-        <v>0.01047204091491611</v>
+        <v>0.09469637429038441</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.56399644646306</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H15">
-        <v>3.56399644646306</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I15">
-        <v>0.054508807643735</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J15">
-        <v>0.054508807643735</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.26868193787949</v>
+        <v>3.381206666666667</v>
       </c>
       <c r="N15">
-        <v>2.26868193787949</v>
+        <v>10.14362</v>
       </c>
       <c r="O15">
-        <v>0.4186427343577547</v>
+        <v>0.4221501456709782</v>
       </c>
       <c r="P15">
-        <v>0.4186427343577547</v>
+        <v>0.4221501456709781</v>
       </c>
       <c r="Q15">
-        <v>8.085574364757431</v>
+        <v>74.22263140281112</v>
       </c>
       <c r="R15">
-        <v>8.085574364757431</v>
+        <v>668.0036826253001</v>
       </c>
       <c r="S15">
-        <v>0.0228197162785541</v>
+        <v>0.1403361496839731</v>
       </c>
       <c r="T15">
-        <v>0.0228197162785541</v>
+        <v>0.1403361496839731</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>21.95152166666667</v>
+      </c>
+      <c r="H16">
+        <v>65.85456500000001</v>
+      </c>
+      <c r="I16">
+        <v>0.3324318400054526</v>
+      </c>
+      <c r="J16">
+        <v>0.3324318400054526</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.6493676666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.948103</v>
+      </c>
+      <c r="O16">
+        <v>0.08107480024212949</v>
+      </c>
+      <c r="P16">
+        <v>0.0810748002421295</v>
+      </c>
+      <c r="Q16">
+        <v>14.25460840446611</v>
+      </c>
+      <c r="R16">
+        <v>128.291475640195</v>
+      </c>
+      <c r="S16">
+        <v>0.02695184502256562</v>
+      </c>
+      <c r="T16">
+        <v>0.02695184502256563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.56399644646306</v>
-      </c>
-      <c r="H16">
-        <v>3.56399644646306</v>
-      </c>
-      <c r="I16">
-        <v>0.054508807643735</v>
-      </c>
-      <c r="J16">
-        <v>0.054508807643735</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.10934871161525</v>
-      </c>
-      <c r="N16">
-        <v>2.10934871161525</v>
-      </c>
-      <c r="O16">
-        <v>0.3892407735083412</v>
-      </c>
-      <c r="P16">
-        <v>0.3892407735083412</v>
-      </c>
-      <c r="Q16">
-        <v>7.517711312548185</v>
-      </c>
-      <c r="R16">
-        <v>7.517711312548185</v>
-      </c>
-      <c r="S16">
-        <v>0.0212170504502648</v>
-      </c>
-      <c r="T16">
-        <v>0.0212170504502648</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>19.402266</v>
+      </c>
+      <c r="H17">
+        <v>58.20679800000001</v>
+      </c>
+      <c r="I17">
+        <v>0.293826144929599</v>
+      </c>
+      <c r="J17">
+        <v>0.293826144929599</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.5987749999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.796325</v>
+      </c>
+      <c r="O17">
+        <v>0.07475820864961619</v>
+      </c>
+      <c r="P17">
+        <v>0.07475820864961619</v>
+      </c>
+      <c r="Q17">
+        <v>11.61759182415</v>
+      </c>
+      <c r="R17">
+        <v>104.55832641735</v>
+      </c>
+      <c r="S17">
+        <v>0.02196591624935933</v>
+      </c>
+      <c r="T17">
+        <v>0.02196591624935933</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>19.402266</v>
+      </c>
+      <c r="H18">
+        <v>58.20679800000001</v>
+      </c>
+      <c r="I18">
+        <v>0.293826144929599</v>
+      </c>
+      <c r="J18">
+        <v>0.293826144929599</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.09856</v>
+      </c>
+      <c r="N18">
+        <v>3.29568</v>
+      </c>
+      <c r="O18">
+        <v>0.137157325696835</v>
+      </c>
+      <c r="P18">
+        <v>0.137157325696835</v>
+      </c>
+      <c r="Q18">
+        <v>21.31455333696</v>
+      </c>
+      <c r="R18">
+        <v>191.83098003264</v>
+      </c>
+      <c r="S18">
+        <v>0.04030040825835445</v>
+      </c>
+      <c r="T18">
+        <v>0.04030040825835445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>19.402266</v>
+      </c>
+      <c r="H19">
+        <v>58.20679800000001</v>
+      </c>
+      <c r="I19">
+        <v>0.293826144929599</v>
+      </c>
+      <c r="J19">
+        <v>0.293826144929599</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.281579</v>
+      </c>
+      <c r="N19">
+        <v>6.844737</v>
+      </c>
+      <c r="O19">
+        <v>0.2848595197404412</v>
+      </c>
+      <c r="P19">
+        <v>0.2848595197404412</v>
+      </c>
+      <c r="Q19">
+        <v>44.26780265801401</v>
+      </c>
+      <c r="R19">
+        <v>398.4102239221261</v>
+      </c>
+      <c r="S19">
+        <v>0.08369917453183086</v>
+      </c>
+      <c r="T19">
+        <v>0.08369917453183083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>19.402266</v>
+      </c>
+      <c r="H20">
+        <v>58.20679800000001</v>
+      </c>
+      <c r="I20">
+        <v>0.293826144929599</v>
+      </c>
+      <c r="J20">
+        <v>0.293826144929599</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.381206666666667</v>
+      </c>
+      <c r="N20">
+        <v>10.14362</v>
+      </c>
+      <c r="O20">
+        <v>0.4221501456709782</v>
+      </c>
+      <c r="P20">
+        <v>0.4221501456709781</v>
+      </c>
+      <c r="Q20">
+        <v>65.60307114764001</v>
+      </c>
+      <c r="R20">
+        <v>590.42764032876</v>
+      </c>
+      <c r="S20">
+        <v>0.1240387498839722</v>
+      </c>
+      <c r="T20">
+        <v>0.1240387498839722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>19.402266</v>
+      </c>
+      <c r="H21">
+        <v>58.20679800000001</v>
+      </c>
+      <c r="I21">
+        <v>0.293826144929599</v>
+      </c>
+      <c r="J21">
+        <v>0.293826144929599</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.6493676666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.948103</v>
+      </c>
+      <c r="O21">
+        <v>0.08107480024212949</v>
+      </c>
+      <c r="P21">
+        <v>0.0810748002421295</v>
+      </c>
+      <c r="Q21">
+        <v>12.599204200466</v>
+      </c>
+      <c r="R21">
+        <v>113.392837804194</v>
+      </c>
+      <c r="S21">
+        <v>0.02382189600608223</v>
+      </c>
+      <c r="T21">
+        <v>0.02382189600608223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.771175666666667</v>
+      </c>
+      <c r="H22">
+        <v>11.313527</v>
+      </c>
+      <c r="I22">
+        <v>0.05711033999786299</v>
+      </c>
+      <c r="J22">
+        <v>0.05711033999786299</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.5987749999999999</v>
+      </c>
+      <c r="N22">
+        <v>1.796325</v>
+      </c>
+      <c r="O22">
+        <v>0.07475820864961619</v>
+      </c>
+      <c r="P22">
+        <v>0.07475820864961619</v>
+      </c>
+      <c r="Q22">
+        <v>2.258085709808333</v>
+      </c>
+      <c r="R22">
+        <v>20.322771388275</v>
+      </c>
+      <c r="S22">
+        <v>0.004269466713610762</v>
+      </c>
+      <c r="T22">
+        <v>0.004269466713610762</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.771175666666667</v>
+      </c>
+      <c r="H23">
+        <v>11.313527</v>
+      </c>
+      <c r="I23">
+        <v>0.05711033999786299</v>
+      </c>
+      <c r="J23">
+        <v>0.05711033999786299</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.09856</v>
+      </c>
+      <c r="N23">
+        <v>3.29568</v>
+      </c>
+      <c r="O23">
+        <v>0.137157325696835</v>
+      </c>
+      <c r="P23">
+        <v>0.137157325696835</v>
+      </c>
+      <c r="Q23">
+        <v>4.142862740373333</v>
+      </c>
+      <c r="R23">
+        <v>37.28576466336</v>
+      </c>
+      <c r="S23">
+        <v>0.007833101503743875</v>
+      </c>
+      <c r="T23">
+        <v>0.007833101503743875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.771175666666667</v>
+      </c>
+      <c r="H24">
+        <v>11.313527</v>
+      </c>
+      <c r="I24">
+        <v>0.05711033999786299</v>
+      </c>
+      <c r="J24">
+        <v>0.05711033999786299</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.281579</v>
+      </c>
+      <c r="N24">
+        <v>6.844737</v>
+      </c>
+      <c r="O24">
+        <v>0.2848595197404412</v>
+      </c>
+      <c r="P24">
+        <v>0.2848595197404412</v>
+      </c>
+      <c r="Q24">
+        <v>8.604235206377668</v>
+      </c>
+      <c r="R24">
+        <v>77.43811685739901</v>
+      </c>
+      <c r="S24">
+        <v>0.01626842402400456</v>
+      </c>
+      <c r="T24">
+        <v>0.01626842402400456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.771175666666667</v>
+      </c>
+      <c r="H25">
+        <v>11.313527</v>
+      </c>
+      <c r="I25">
+        <v>0.05711033999786299</v>
+      </c>
+      <c r="J25">
+        <v>0.05711033999786299</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.381206666666667</v>
+      </c>
+      <c r="N25">
+        <v>10.14362</v>
+      </c>
+      <c r="O25">
+        <v>0.4221501456709782</v>
+      </c>
+      <c r="P25">
+        <v>0.4221501456709781</v>
+      </c>
+      <c r="Q25">
+        <v>12.75112430530445</v>
+      </c>
+      <c r="R25">
+        <v>114.76011874774</v>
+      </c>
+      <c r="S25">
+        <v>0.02410913834941695</v>
+      </c>
+      <c r="T25">
+        <v>0.02410913834941695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.771175666666667</v>
+      </c>
+      <c r="H26">
+        <v>11.313527</v>
+      </c>
+      <c r="I26">
+        <v>0.05711033999786299</v>
+      </c>
+      <c r="J26">
+        <v>0.05711033999786299</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.6493676666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.948103</v>
+      </c>
+      <c r="O26">
+        <v>0.08107480024212949</v>
+      </c>
+      <c r="P26">
+        <v>0.0810748002421295</v>
+      </c>
+      <c r="Q26">
+        <v>2.448879543253445</v>
+      </c>
+      <c r="R26">
+        <v>22.039915889281</v>
+      </c>
+      <c r="S26">
+        <v>0.00463020940708684</v>
+      </c>
+      <c r="T26">
+        <v>0.004630209407086841</v>
       </c>
     </row>
   </sheetData>
